--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2317037.889212171</v>
+        <v>2314785.809500963</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9500189.557804354</v>
+        <v>9500189.557804352</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.4918089738222</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>227.7172236952942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -865,25 +865,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>53.7634345605265</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.45713216103881</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157712</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.2312541267336</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>97.66568238532271</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177685</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>318.4070179429972</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039624</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812005</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571479</v>
+        <v>121.8000472740365</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.822430874919</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>45.16086499484882</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833204</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2533,16 +2533,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>266.3321854924545</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340502</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>7.602497644398836</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410101</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2961.784676410101</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1548.361223971664</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1548.361223971664</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,16 +4562,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919561</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943749</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,25 +4665,25 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>431.4421061205826</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1547.126002243228</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.708832206268</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.71928130825</v>
+        <v>652.2346852641127</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>431.4421061205826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2434.183678346854</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2434.183678346854</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>380.4321398396067</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,7 +5124,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
         <v>680.0291294438176</v>
@@ -5176,22 +5176,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400699</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>344.917417812163</v>
+        <v>513.853600740073</v>
       </c>
       <c r="D16" t="n">
-        <v>344.917417812163</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="E16" t="n">
-        <v>344.917417812163</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="F16" t="n">
-        <v>344.917417812163</v>
+        <v>216.8470138298269</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270429</v>
+        <v>216.8470138298269</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1097.958364892466</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.022181964559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>778.9055425522232</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>630.9924489698301</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.1025014719197</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1098.667160263527</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,22 +6309,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1708.43867092217</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7163,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.459739407057</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405078</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405091</v>
+        <v>18.49466557218739</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7017074173498941</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>180.5487903941883</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489197</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>19.85228889678962</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788707</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>218.1071577446383</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>832020.7612345053</v>
+        <v>832020.7612345052</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
@@ -26320,40 +26320,40 @@
         <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675046</v>
-      </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>1.836444232594659e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>1.462967702536844e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815702</v>
+        <v>90964.01098815704</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26430,13 +26430,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680585</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680585</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26448,7 +26448,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911861.3698789306</v>
+        <v>-911861.3698789307</v>
       </c>
       <c r="C6" t="n">
         <v>416883.3758486618</v>
       </c>
       <c r="D6" t="n">
-        <v>416883.3758486621</v>
+        <v>416883.3758486623</v>
       </c>
       <c r="E6" t="n">
-        <v>167047.9819194364</v>
+        <v>167013.2439940005</v>
       </c>
       <c r="F6" t="n">
-        <v>492460.4437267912</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="G6" t="n">
-        <v>492460.4437267913</v>
+        <v>492425.7058013559</v>
       </c>
       <c r="H6" t="n">
-        <v>492460.4437267915</v>
+        <v>492425.7058013553</v>
       </c>
       <c r="I6" t="n">
-        <v>492460.4437267914</v>
+        <v>492425.7058013554</v>
       </c>
       <c r="J6" t="n">
-        <v>274929.2413295141</v>
+        <v>274894.503404078</v>
       </c>
       <c r="K6" t="n">
-        <v>492460.4437267915</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="L6" t="n">
-        <v>492460.4437267915</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="M6" t="n">
-        <v>407405.41579128</v>
+        <v>407370.6778658438</v>
       </c>
       <c r="N6" t="n">
-        <v>492460.4437267915</v>
+        <v>492425.7058013554</v>
       </c>
       <c r="O6" t="n">
-        <v>492460.4437267912</v>
+        <v>492425.7058013554</v>
       </c>
       <c r="P6" t="n">
-        <v>492460.4437267914</v>
+        <v>492425.7058013555</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.5207149607594</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>171.9462208285107</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2767095024417</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659868</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718942</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>154.4719609385053</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029145</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>9.345240527137719</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944185</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.105823316955884e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28509,10 +28509,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.252071459007168e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31844,10 +31844,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948335</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338208</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34448,25 +34448,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281522</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096334</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191328</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496672</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37227,7 +37227,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38096,25 +38096,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
